--- a/storage/excel/stats_1894088037.xlsx
+++ b/storage/excel/stats_1894088037.xlsx
@@ -512,12 +512,12 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2025-11-04 21:36:48</t>
+          <t>2025-11-17 09:48:15</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2025-11-04 21:37:01</t>
+          <t>2025-11-17 09:48:24</t>
         </is>
       </c>
     </row>
